--- a/data/DataSheet.xlsx
+++ b/data/DataSheet.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,18 +439,18 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Example</t>
+          <t>Examples</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>America</t>
+          <t xml:space="preserve">People </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -459,111 +459,108 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Four years ago, I stood before you and told you my story - of the brief union between a young man from Kenya and a young woman from Kansas who weren't well-off or well-known, but shared a belief that in America, their son could achieve whatever he put his mind to 
- 300,000 Iraqi security forces have supposedly been recruited and trained over the last two years, and yet American troop levels have not been reduced by a single soldier 
- Change means a tax code that doesn't reward the lobbyists who wrote it, but the American workers and small businesses who deserve it</t>
+          <t>But too many times, after the election is over, and the confetti is swept away, all those promises fade from memory, and the lobbyists and the special interests move in, and people turn away, disappointed as before, left to struggle on their own. 
+I joined with pastors and lay-people to deal with communities that had been ravaged by plant closings. 
+In each case, what has been required to meet the challenges we face has been good judgment and clear vision from our leaders, and a fundamental seriousness and engagement on the part of the American people ? a willingness on the part of each of us to look past what is petty and small and sensational, and look ahead to what is necessary and purposeful.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>American</t>
+          <t xml:space="preserve">Country </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Our time to write a new chapter in the American story 
- And when one of his chief advisors - the man who wrote his economic plan - was talking about the anxiety Americans are feeling, he said that we were just suffering from a "mental recession," and that we've become, and I quote, "a nation of whiners."
-A nation of whiners? Tell that to the proud auto workers at a Michigan plant who, after they found out it was closing, kept showing up every day and working as hard as ever, because they knew there were people who counted on the brakes that they made 
- And now, after three long years of watching the same back and forth in Washington, the American people have sent a clear message that the days of using the war on terror as a political football are over</t>
+          <t>And you will determine the direction of this country in the 21st century - whether the hard work of the many is lost to the selfish desires of a few, or whether you build an open, honest, stronger Kenya where everyone rises together. 
+Our time to leave our children a country that is freer and kinder, more prosperous and more just than the place we grew up. 
+All of us running for president will travel around the country offering ten-point plans and making grand speeches; all of us will trumpet those qualities we believe make us uniquely qualified to lead the country.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>country</t>
+          <t xml:space="preserve">American </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>He was talking about what an awful job his own party has done governing this country, and he said that with all the mistakes and misjudgments the Republicans have made over the last six years, the slogan for the Democrats should come down to just two words:
-Had enough?
-I don't know about you, but I think old Newt is onto something here 
- is not going to hold together this country indefinitely ? that it will be up to them to form a viable government that can effectively run and secure Iraq 
- To reach such a solution, we must communicate clearly and effectively to the factions in Iraq that the days of asking, urging, and waiting for them to take control of their own country are coming to an end</t>
+          <t>My own city of Chicago has been the home of some of the most corrupt local politics in American history, from patronage machines to questionable elections. 
+There is one other place where our mistakes in Iraq have cost us dearly ? and that is the loss of our government’s credibility with the American people. 
+Iraq is descending into chaos based on ethnic divisions that were around long before American troops arrived.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>government</t>
+          <t xml:space="preserve">America </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>And although government will play a crucial role in bringing about the changes we need, more money and programs alone will not get us where we need to go 
- In the end, if the people cannot trust their government to do the job for which it exists - to protect them and to promote their common welfare - all else is lost 
- In a century just six years old, our faith has been shaken by war and terror, disaster and despair, threats to the middle-class dream, and scandal and corruption in our government</t>
+          <t>Let's be the generation that says right here, right now, that we will have universal health care in America by the end of the next president's first term. 
+And then someday, someday, if our kids get the chance to stand where we are and look back at the beginning of the 21st century, they can say that this was the time when America renewed its purpose. 
+These are Americans who still believe in an America where anything's possible - they just don't think their leaders do.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t xml:space="preserve">Government </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>But too many times, after the election is over, and the confetti is swept away, all those promises fade from memory, and the lobbyists and the special interests move in, and people turn away, disappointed as before, left to struggle on their own 
- And now is the time to keep the promise of equal pay for an equal day's work, because I want my daughters to have exactly the same opportunities as your sons 
- And it is on their behalf that I intend to win this election and keep our promise alive as President of the United States</t>
+          <t>And let it be said that we are the party of open, honest government that doesn't peddle the agenda of whichever lobbyist or special interest can write the biggest check. 
+We know that government can't solve all our problems - and we don't want it to. 
+So if the government found ways to downsize the bureaucracy - to cut out the positions that aren't necessary or useful - it could use the extra money to increase the salary of other government officials.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>because</t>
+          <t xml:space="preserve">Should </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -572,210 +569,318 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>It is because of the millions who rallied to his cause that we are no longer divided, North and South, slave and free 
- And on a more personal level, because he never fully reconciled the traditions of his village with more modern conceptions of family - because he related to women as his father had, expecting them to obey him no matter what he did - his family life was unstable, and his children never knew him well 
- Why else would he define middle-class as someone making under five million dollars a year? How else could he propose hundreds of billions in tax breaks for big corporations and oil companies but not one penny of tax relief to more than one hundred million Americans? How else could he offer a health care plan that would actually tax people's benefits, or an education plan that would do nothing to help families pay for college, or a plan that would privatize Social Security and gamble your retirement?
-It's not because John McCain doesn't care</t>
+          <t>should "mind its own business internationally and let other countries get along the best they can on their own.”
+We cannot afford to be a country of isolationists right now. 
+But even as we provide such help, we should be clear that the institutions of democracy ? free markets, a free press, a strong civil society ? cannot be built overnight, and they cannot be built at the end of a barrel of a gun. 
+We know these countries want us to fail, and we should remain steadfast in our opposition to their support of terrorism and Iran’s nuclear ambitions.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t xml:space="preserve">Promise </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+          <t>doc1.txt, doc2.txt, doc4.txt, doc5.txt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>She believed in this idea with all her heart and she saw this progress around her and she had faith that someday it would be her turn 
- I believe that as hard as it will be, the change we need is coming 
- Our faith has been shaken, but the people running Washington aren't willing to make us believe again</t>
+          <t>We have the opportunity to muster the courage to fulfill the promise of our forefathers and lead our great nations towards a better future. 
+Now is the time to finally keep the promise of affordable, accessible health care for every single American. 
+And it is that promise that forty five years ago today, brought Americans from every corner of this land to stand together on a Mall in Washington, before Lincoln's Memorial, and hear a young preacher from Georgia speak of his dream.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>weapons</t>
+          <t xml:space="preserve">Because </t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc4.txt, doc5.txt, doc6.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>While the government of Ukraine is making progress here, the limited funding they have means that at the current pace, it will take sixty years to dismantle these weapons 
- He looked at me and said, "Been there, done that."
-Of course, Dick has been there and he has done that, and thanks to the Cooperative Threat Reduction Programs he co-founded with Senator Sam Nunn, we've made amazing progress in finding, securing, and guarding some of the deadliest weapons that were left scattered throughout the former Soviet Union after the Cold War 
- But we've all seen how it could take far less time for these weapons to leak out and travel around the world, fueling insurgencies and violent conflicts from Africa to Afghanistan</t>
+          <t>And on a more personal level, because he never fully reconciled the traditions of his village with more modern conceptions of family - because he related to women as his father had, expecting them to obey him no matter what he did - his family life was unstable, and his children never knew him well. 
+And now is the time to keep the promise of equal pay for an equal day's work, because I want my daughters to have exactly the same opportunities as your sons. 
+But I will also go through the federal budget, line by line, eliminating programs that no longer work and making the ones we do need work better and cost less - because we cannot meet twenty-first century challenges with a twentieth century bureaucracy.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Americans</t>
+          <t xml:space="preserve">Enough </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc5.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Let it be said that we are the party of affordable, accessible health care for all Americans 
- Tonight, more Americans are out of work and more are working harder for less 
- It is because men and women of every race, from every walk of life, continued to march for freedom long after Lincoln was laid to rest, that today we have the chance to face the challenges of this millennium together, as one people - as Americans</t>
+          <t>And in the end, we know that it isn't enough to just say that you've had enough. 
+The second lesson is that in any conflict, it is not enough to simply plan for war; you must also plan for success. 
+I've had enough of giving billions away to the oil companies when we're told that we can't invest in the renewable energy that will create jobs and lower gas prices and finally free us from our dependence on the oil wells of Saudi Arabia.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>together</t>
+          <t xml:space="preserve">Weapons </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+          <t>doc2.txt, doc4.txt, doc5.txt, doc6.txt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>And that is why, in the shadow of the Old State Capitol, where Lincoln once called on a divided house to stand together, where common hopes and common dreams still, I stand before you today to announce my candidacy for President of the United States 
- And it is that promise that forty five years ago today, brought Americans from every corner of this land to stand together on a Mall in Washington, before Lincoln's Memorial, and hear a young preacher from Georgia speak of his dream 
- It must be about us - it must be about what we can do together</t>
+          <t>In a way that balances the needs of science and security, more needs to be done to bring these materials - as well as other sources that can be used to construct improvised nuclear weapons and radiological devices -- under control and dramatically reduce the proliferation threat they pose. 
+In Donetsk, I stood among piles of conventional weapons that were slowly being dismantled. 
+But I will also renew the tough, direct diplomacy that can prevent Iran from obtaining nuclear weapons and curb Russian aggression.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>against</t>
+          <t xml:space="preserve">Change </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+          <t>doc1.txt, doc2.txt, doc4.txt, doc5.txt</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>And so the question is not whether there is some magic formula for success, or guarantee against failure, in Iraq 
- Of course, in the end, one of the strongest weapons your country has against corruption is the ability of you, the people, to stand up and speak out about the injustices you see 
- The National Intelligence Estimate, which details how we’re creating more terrorists in Iraq than we’re defeating, is the most obvious example of how the war is hurting our efforts in the larger battle against terrorism</t>
+          <t>And next week, we'll also hear about those occasions when he's broken with his party as evidence that he can deliver the change that we need. 
+For the last six years we've been told that our mounting debts don't matter, we've been told that the anxiety Americans feel about rising health care costs and stagnant wages are an illusion, we've been told that climate change is a hoax, and that tough talk and an ill-conceived war can replace diplomacy, and strategy, and foresight. 
+By ourselves, this change will not happen.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>corrupt</t>
+          <t xml:space="preserve">Troops </t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>doc3.txt, doc4.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc5.txt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Clarifying these rules and focusing resources on building a judicial system that can enforce them and resolve disputes should be a primary goal of any government suffering from corruption 
- And this is why the struggle against corruption is one of the great struggles of our time 
- What's worse - corruption can also provide opportunities for those who would harness the fear and hatred of others to their agenda and ambitions</t>
+          <t>troops remaining in Iraq should be dedicated to the critical, but less visible roles, of protecting logistics supply points, critical infrastructure, and American enclaves like the Green Zone, as well as acting as a rapid reaction force to respond to emergencies and go after terrorists. 
+I've had enough of being told that we can't afford body armor for our troops and health care for our veterans and benefits for the wounded heroes who've risked their lives for this country. 
+Drawing down our troops in Iraq will allow us to redeploy additional troops to Northern Iraq and elsewhere in the region as an over-the-horizon force.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>President</t>
+          <t xml:space="preserve">Americans </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc5.txt, doc6.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc5.txt</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>We need a President who can face the threats of the future, not keep grasping at the ideas of the past 
- To President Clinton, who last night made the case for change as only he can make it; to Ted Kennedy, who embodies the spirit of service; and to the next Vice President of the United States, Joe Biden, I thank you 
- He said that our economy has made "great progress" under this President</t>
+          <t>Americans were originally persuaded by the President to go to war in part because of the threat of weapons of mass destruction, and in part because they were told that it would help reduce the threat of international terrorism. 
+These are Americans who still believe in an America where anything's possible - they just don't think their leaders do. 
+Americans called for this more serious policy a few Tuesdays ago.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>generation</t>
+          <t xml:space="preserve">Believe </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>doc1.txt, doc2.txt, doc5.txt, doc6.txt</t>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Let's be the generation that finally tackles our health care crisis 
- And I'll invest 150 billion dollars over the next decade in affordable, renewable sources of energy - wind power and solar power and the next generation of biofuels; an investment that will lead to new industries and five million new jobs that pay well and can't ever be outsourced 
- Now is the time to change our bankruptcy laws, so that your pensions are protected ahead of CEO bonuses; and the time to protect Social Security for future generations</t>
+          <t>The reason they don't believe government has a role in solving national problems is because they think government is the problem. 
+Our faith has been shaken, but the people running Washington aren't willing to make us believe again. 
+In the face of a politics that's shut you out, that's told you to settle, that's divided us for too long, you believe we can be one people, reaching for what's possible, building that more perfect union.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t xml:space="preserve">Nation </t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>They are the soul-trying times our forbearers spoke of, when the ease of complacency and self-interest must give way to the more difficult task of rendering judgment on what is best for the nation and for posterity, and then acting on that judgment ? making the hard choices and sacrifices necessary to uphold our most deeply held values and ideals. 
+Yes, our greatness as a nation has depended on individual initiative, on a belief in the free market. 
+And how she watched FDR lift this nation out of fear and send millions to college on the GI Bill and lift millions out of poverty with Social Security.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health </t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc6.txt</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Let's be the generation that says right here, right now, that we will have universal health care in America by the end of the next president's first term. 
+No more can we count on employers to provide health care and pensions and job training when their bottom-lines know no borders. 
+This means that the education and health care systems - issues that my own nation more than 200 years old still struggles with - lag behind, impacting its development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Together </t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Instead, it is that American spirit - that American promise - that pushes us forward even when the path is uncertain; that binds us together in spite of our differences; that makes us fix our eye not on what is seen, but what is unseen, that better place around the bend. 
+It is that promise that has always set this country apart - that through hard work and sacrifice, each of us can pursue our individual dreams but still come together as one American family, to ensure that the next generation can pursue their dreams as well. 
+Thank you Roger Hickey and Bob Borosage for bringing us all together today and thank you for your leadership in the cause of a more progressive America.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mccain </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>doc2.txt</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>John McCain likes to say that he'll follow bin Laden to the Gates of Hell - but he won't even go to the cave where he lives. 
+Washington's been talking about our oil addiction for the last thirty years, and John McCain has been there for twenty-six of them. 
+If John McCain wants to follow George Bush with more tough talk and bad strategy, that is his choice - but it is not the change we need.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Against </t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>But let us also understand that ultimate victory against our enemies will come only by rebuilding our alliances and exporting those ideals that bring hope and opportunity to millions around the globe. 
+But to guard against isolationist sentiments in this country, we must change conditions in Iraq and the policy that has characterized our time there ? a policy based on blind hope and ideology instead of fact and reality. 
+As we change strategy in Iraq, we should also think about what Iraq has taught us about America’s strategy in the wider struggle against rogue threats and international terrorism.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Better </t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>20</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>The third part of our strategy should be to link continued economic aid in Iraq with the existence of tangible progress toward a political settlement 
- We've made some progress already 
- He looked at me and said, "Been there, done that."
-Of course, Dick has been there and he has done that, and thanks to the Cooperative Threat Reduction Programs he co-founded with Senator Sam Nunn, we've made amazing progress in finding, securing, and guarding some of the deadliest weapons that were left scattered throughout the former Soviet Union after the Cold War</t>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>doc1.txt, doc2.txt, doc3.txt, doc4.txt, doc5.txt, doc6.txt</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Now is the time to help families with paid sick days and better family leave, because nobody in America should have to choose between keeping their jobs and caring for a sick child or ailing parent. 
+That we're better off if we dismantle it - if we divvy it up into individual tax breaks, hand 'em out, and encourage everyone to go buy your own health care, your own retirement security, your own child care, their own schools, your own private security force, your own roads, their own levees... 
+I've seen it in Washington, when we worked across party lines to open up government and hold lobbyists more accountable, to give better care for our veterans and keep nuclear weapons out of terrorist hands.</t>
         </is>
       </c>
     </row>
